--- a/2024-Stock-RealtimeSupervision(1-2).xlsx
+++ b/2024-Stock-RealtimeSupervision(1-2).xlsx
@@ -7,25 +7,26 @@
     <workbookView windowWidth="23145" windowHeight="9675"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-02-20" sheetId="13" r:id="rId1"/>
-    <sheet name="2024-02-19" sheetId="12" r:id="rId2"/>
-    <sheet name="2024-02-07" sheetId="8" r:id="rId3"/>
-    <sheet name="2024-02-07板块" sheetId="10" r:id="rId4"/>
-    <sheet name="2024-02-06" sheetId="7" r:id="rId5"/>
-    <sheet name="2024-02-05" sheetId="6" r:id="rId6"/>
-    <sheet name="2024-02-02" sheetId="5" r:id="rId7"/>
-    <sheet name="2024-02-01" sheetId="4" r:id="rId8"/>
-    <sheet name="2024-01-31" sheetId="3" r:id="rId9"/>
-    <sheet name="2024-01-30" sheetId="2" r:id="rId10"/>
-    <sheet name="大盘实时数据(模板)" sheetId="1" r:id="rId11"/>
-    <sheet name="板块概念数据(模板)" sheetId="9" r:id="rId12"/>
+    <sheet name="2024-02-21" sheetId="14" r:id="rId1"/>
+    <sheet name="2024-02-20" sheetId="13" r:id="rId2"/>
+    <sheet name="2024-02-19" sheetId="12" r:id="rId3"/>
+    <sheet name="2024-02-07" sheetId="8" r:id="rId4"/>
+    <sheet name="2024-02-07板块" sheetId="10" r:id="rId5"/>
+    <sheet name="2024-02-06" sheetId="7" r:id="rId6"/>
+    <sheet name="2024-02-05" sheetId="6" r:id="rId7"/>
+    <sheet name="2024-02-02" sheetId="5" r:id="rId8"/>
+    <sheet name="2024-02-01" sheetId="4" r:id="rId9"/>
+    <sheet name="2024-01-31" sheetId="3" r:id="rId10"/>
+    <sheet name="2024-01-30" sheetId="2" r:id="rId11"/>
+    <sheet name="大盘实时数据(模板)" sheetId="1" r:id="rId12"/>
+    <sheet name="板块概念数据(模板)" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="43">
   <si>
     <t>时间</t>
   </si>
@@ -770,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,6 +791,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,6 +1184,12 @@
                 <c:pt idx="0">
                   <c:v>-64</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-40.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1240,6 +1250,12 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-31.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,6 +1335,12 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7378,6 +7400,9 @@
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7457,6 +7482,9 @@
                 <c:pt idx="0">
                   <c:v>2372</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2597</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7520,6 +7548,9 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13098,6 +13129,9 @@
                 <c:pt idx="0">
                   <c:v>97</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13158,6 +13192,9 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34262,8 +34299,8 @@
   <sheetPr/>
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -34345,48 +34382,48 @@
         <v>0.4375</v>
       </c>
       <c r="B2" s="1">
-        <v>2906</v>
+        <v>2941</v>
       </c>
       <c r="C2" s="1">
-        <v>-64</v>
+        <v>-27</v>
       </c>
       <c r="D2" s="1">
-        <v>-7.4</v>
-      </c>
-      <c r="E2">
-        <v>-56.7</v>
-      </c>
-      <c r="F2">
-        <v>12.1</v>
-      </c>
-      <c r="G2">
-        <v>52</v>
-      </c>
-      <c r="H2">
-        <v>-31.7</v>
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>-28</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-8.3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>35.1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>28.7</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="2">
         <v>0.4375</v>
       </c>
       <c r="L2" s="1">
-        <v>2372</v>
+        <v>4294</v>
       </c>
       <c r="M2" s="1">
-        <v>2760</v>
+        <v>926</v>
       </c>
       <c r="N2" s="1">
-        <v>45</v>
+        <v>82.3</v>
       </c>
       <c r="O2" s="1"/>
       <c r="Q2" s="2">
         <v>0.4375</v>
       </c>
       <c r="R2" s="1">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="S2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="1"/>
@@ -34396,22 +34433,50 @@
       <c r="A3" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>2972</v>
+      </c>
+      <c r="C3" s="1">
+        <v>103.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>75.6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>88.2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="G3" s="7">
+        <v>-80</v>
+      </c>
+      <c r="H3" s="7">
+        <v>74.5</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="L3" s="1">
+        <v>5012</v>
+      </c>
+      <c r="M3" s="1">
+        <v>299</v>
+      </c>
+      <c r="N3" s="1">
+        <v>94.4</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="Q3" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="R3" s="1">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
       <c r="V3" s="2"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -34461,11 +34526,389 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="16.25" customWidth="1"/>
+    <col min="15" max="15" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2810</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-66.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2" s="1">
+        <v>770</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4502</v>
+      </c>
+      <c r="J2" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="M2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N2" s="1">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1">
+        <v>73</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2792</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-133.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H3" s="1">
+        <v>562</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4754</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="M3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="N3" s="1">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1">
+        <v>87</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2809</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-174.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.46</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H4" s="1">
+        <v>684</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4623</v>
+      </c>
+      <c r="J4" s="1">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="M4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N4" s="1">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>87</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2819.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-157.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.41</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="H5" s="1">
+        <v>952</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4317</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18.1</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="N5" s="1">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1">
+        <v>82</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:18">
+      <c r="A6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2812</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-171</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H6" s="1">
+        <v>761</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4535</v>
+      </c>
+      <c r="J6" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="N6" s="1">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1">
+        <v>95</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:18">
+      <c r="A7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N7" s="1">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1">
+        <v>158</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:18">
+      <c r="A8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2790</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-276</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19.22</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="H8" s="1">
+        <v>491</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4817</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9.3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:18">
+      <c r="A9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2788</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-329</v>
+      </c>
+      <c r="D9" s="1">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H9" s="1">
+        <v>489</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4815</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9.2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="N9" s="1">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1">
+        <v>184</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O9"/>
@@ -34822,13 +35265,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W16" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -34987,7 +35430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J25"/>
@@ -35242,6 +35685,248 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="14.75" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="13.75" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="17.375" customWidth="1"/>
+    <col min="23" max="23" width="13.75" customWidth="1"/>
+    <col min="24" max="24" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2906</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-64</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-7.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-56.7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-31.7</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2372</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2760</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="R2" s="1">
+        <v>97</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2911</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-79.1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-13.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-66</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-22.5</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2597</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2569</v>
+      </c>
+      <c r="N3" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="R3" s="1">
+        <v>98</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:22">
+      <c r="A4" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="K4" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:22">
+      <c r="A5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2923</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-40.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-63.8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -35457,7 +36142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X9"/>
@@ -35947,12 +36632,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -36336,7 +37021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X9"/>
@@ -36826,7 +37511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X9"/>
@@ -37316,7 +38001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T9"/>
@@ -37678,7 +38363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T9"/>
@@ -38038,383 +38723,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="16.25" customWidth="1"/>
-    <col min="15" max="15" width="17.375" customWidth="1"/>
-    <col min="19" max="19" width="13.75" customWidth="1"/>
-    <col min="20" max="20" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="2">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2810</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-66.4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.62</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H2" s="1">
-        <v>770</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4502</v>
-      </c>
-      <c r="J2" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="M2" s="2">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="N2" s="1">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1">
-        <v>73</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2792</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-133.6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="H3" s="1">
-        <v>562</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4754</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="M3" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="N3" s="1">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1">
-        <v>87</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2809</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-174.4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9.46</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H4" s="1">
-        <v>684</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4623</v>
-      </c>
-      <c r="J4" s="1">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="M4" s="2">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="N4" s="1">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1">
-        <v>87</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2819.9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-157.2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7.41</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="H5" s="1">
-        <v>952</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4317</v>
-      </c>
-      <c r="J5" s="1">
-        <v>18.1</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="M5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="N5" s="1">
-        <v>27</v>
-      </c>
-      <c r="O5" s="1">
-        <v>82</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:18">
-      <c r="A6" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2812</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-171</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.73</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="H6" s="1">
-        <v>761</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4535</v>
-      </c>
-      <c r="J6" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="N6" s="1">
-        <v>29</v>
-      </c>
-      <c r="O6" s="1">
-        <v>95</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:18">
-      <c r="A7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="G7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="N7" s="1">
-        <v>24</v>
-      </c>
-      <c r="O7" s="1">
-        <v>158</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:18">
-      <c r="A8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2790</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-276</v>
-      </c>
-      <c r="D8" s="1">
-        <v>19.22</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="H8" s="1">
-        <v>491</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4817</v>
-      </c>
-      <c r="J8" s="1">
-        <v>9.3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2788</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-329</v>
-      </c>
-      <c r="D9" s="1">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="H9" s="1">
-        <v>489</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4815</v>
-      </c>
-      <c r="J9" s="1">
-        <v>9.2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="N9" s="1">
-        <v>30</v>
-      </c>
-      <c r="O9" s="1">
-        <v>184</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/2024-Stock-RealtimeSupervision(1-2).xlsx
+++ b/2024-Stock-RealtimeSupervision(1-2).xlsx
@@ -7,26 +7,27 @@
     <workbookView windowWidth="23145" windowHeight="9675"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-02-21" sheetId="14" r:id="rId1"/>
-    <sheet name="2024-02-20" sheetId="13" r:id="rId2"/>
-    <sheet name="2024-02-19" sheetId="12" r:id="rId3"/>
-    <sheet name="2024-02-07" sheetId="8" r:id="rId4"/>
-    <sheet name="2024-02-07板块" sheetId="10" r:id="rId5"/>
-    <sheet name="2024-02-06" sheetId="7" r:id="rId6"/>
-    <sheet name="2024-02-05" sheetId="6" r:id="rId7"/>
-    <sheet name="2024-02-02" sheetId="5" r:id="rId8"/>
-    <sheet name="2024-02-01" sheetId="4" r:id="rId9"/>
-    <sheet name="2024-01-31" sheetId="3" r:id="rId10"/>
-    <sheet name="2024-01-30" sheetId="2" r:id="rId11"/>
-    <sheet name="大盘实时数据(模板)" sheetId="1" r:id="rId12"/>
-    <sheet name="板块概念数据(模板)" sheetId="9" r:id="rId13"/>
+    <sheet name="2024-02-23" sheetId="15" r:id="rId1"/>
+    <sheet name="2024-02-21" sheetId="14" r:id="rId2"/>
+    <sheet name="2024-02-20" sheetId="13" r:id="rId3"/>
+    <sheet name="2024-02-19" sheetId="12" r:id="rId4"/>
+    <sheet name="2024-02-07" sheetId="8" r:id="rId5"/>
+    <sheet name="2024-02-07板块" sheetId="10" r:id="rId6"/>
+    <sheet name="2024-02-06" sheetId="7" r:id="rId7"/>
+    <sheet name="2024-02-05" sheetId="6" r:id="rId8"/>
+    <sheet name="2024-02-02" sheetId="5" r:id="rId9"/>
+    <sheet name="2024-02-01" sheetId="4" r:id="rId10"/>
+    <sheet name="2024-01-31" sheetId="3" r:id="rId11"/>
+    <sheet name="2024-01-30" sheetId="2" r:id="rId12"/>
+    <sheet name="大盘实时数据(模板)" sheetId="1" r:id="rId13"/>
+    <sheet name="板块概念数据(模板)" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="43">
   <si>
     <t>时间</t>
   </si>
@@ -771,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +792,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -34300,7 +34298,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -34381,50 +34379,26 @@
       <c r="A2" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B2" s="1">
-        <v>2941</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-27</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E2" s="7">
-        <v>-28</v>
-      </c>
-      <c r="F2" s="7">
-        <v>-8.3</v>
-      </c>
-      <c r="G2" s="7">
-        <v>35.1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>28.7</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="J2" s="3"/>
       <c r="K2" s="2">
         <v>0.4375</v>
       </c>
-      <c r="L2" s="1">
-        <v>4294</v>
-      </c>
-      <c r="M2" s="1">
-        <v>926</v>
-      </c>
-      <c r="N2" s="1">
-        <v>82.3</v>
-      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="Q2" s="2">
         <v>0.4375</v>
       </c>
-      <c r="R2" s="1">
-        <v>79</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
       <c r="V2" s="2"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -34433,50 +34407,26 @@
       <c r="A3" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="B3" s="1">
-        <v>2972</v>
-      </c>
-      <c r="C3" s="1">
-        <v>103.6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>75.6</v>
-      </c>
-      <c r="E3" s="7">
-        <v>88.2</v>
-      </c>
-      <c r="F3" s="7">
-        <v>-12.6</v>
-      </c>
-      <c r="G3" s="7">
-        <v>-80</v>
-      </c>
-      <c r="H3" s="7">
-        <v>74.5</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="L3" s="1">
-        <v>5012</v>
-      </c>
-      <c r="M3" s="1">
-        <v>299</v>
-      </c>
-      <c r="N3" s="1">
-        <v>94.4</v>
-      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="R3" s="1">
-        <v>127</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
       <c r="V3" s="2"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -34488,27 +34438,12 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
       <c r="K4" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
       <c r="Q4" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:22">
@@ -34530,6 +34465,368 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="16.25" customWidth="1"/>
+    <col min="15" max="15" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2754</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-78.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.57</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2" s="1">
+        <v>365</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4937</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="M2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N2" s="1">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1">
+        <v>91</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2788</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-12.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>29.68</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1712</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3484</v>
+      </c>
+      <c r="J3" s="1">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="M3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="N3" s="1">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1">
+        <v>59</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2794</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.52</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1873</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3340</v>
+      </c>
+      <c r="J5" s="1">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="N5" s="1">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1">
+        <v>66</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:18">
+      <c r="A6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2781</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-11.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1280</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3900</v>
+      </c>
+      <c r="J6" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="N6" s="1">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1">
+        <v>72</v>
+      </c>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:18">
+      <c r="A7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2781</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-20.1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1358</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3597</v>
+      </c>
+      <c r="J7" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N7" s="1">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1">
+        <v>78</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:18">
+      <c r="A8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2772</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-44.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1109</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4145</v>
+      </c>
+      <c r="J8" s="1">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="N8" s="1">
+        <v>29</v>
+      </c>
+      <c r="O8" s="1">
+        <v>93</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:18">
+      <c r="A9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2770</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-63.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1104</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4163</v>
+      </c>
+      <c r="J9" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="N9" s="1">
+        <v>31</v>
+      </c>
+      <c r="O9" s="1">
+        <v>99</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T9"/>
@@ -34908,7 +35205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O9"/>
@@ -35265,7 +35562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X5"/>
@@ -35430,7 +35727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J25"/>
@@ -35685,6 +35982,226 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="14.75" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="13.75" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="17.375" customWidth="1"/>
+    <col min="23" max="23" width="13.75" customWidth="1"/>
+    <col min="24" max="24" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2941</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-27</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-28</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-8.3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4294</v>
+      </c>
+      <c r="M2" s="1">
+        <v>926</v>
+      </c>
+      <c r="N2" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="R2" s="1">
+        <v>79</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2972</v>
+      </c>
+      <c r="C3" s="1">
+        <v>103.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>75.6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-12.6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-80</v>
+      </c>
+      <c r="H3" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5012</v>
+      </c>
+      <c r="M3" s="1">
+        <v>299</v>
+      </c>
+      <c r="N3" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="R3" s="1">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:22">
+      <c r="A4" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="K4" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:22">
+      <c r="A5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
@@ -35921,7 +36438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X5"/>
@@ -36142,7 +36659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X9"/>
@@ -36632,7 +37149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F55"/>
@@ -37021,7 +37538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X9"/>
@@ -37511,7 +38028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X9"/>
@@ -38001,7 +38518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T9"/>
@@ -38361,366 +38878,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="16.25" customWidth="1"/>
-    <col min="15" max="15" width="17.375" customWidth="1"/>
-    <col min="19" max="19" width="13.75" customWidth="1"/>
-    <col min="20" max="20" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="2">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2754</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-78.4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8.57</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H2" s="1">
-        <v>365</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4937</v>
-      </c>
-      <c r="J2" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="M2" s="2">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="N2" s="1">
-        <v>18</v>
-      </c>
-      <c r="O2" s="1">
-        <v>91</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2788</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-12.3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>29.68</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1712</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3484</v>
-      </c>
-      <c r="J3" s="1">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="M3" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="N3" s="1">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1">
-        <v>59</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="M4" s="2">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2794</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.52</v>
-      </c>
-      <c r="D5" s="1">
-        <v>38.9</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1873</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3340</v>
-      </c>
-      <c r="J5" s="1">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="M5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="N5" s="1">
-        <v>26</v>
-      </c>
-      <c r="O5" s="1">
-        <v>66</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:18">
-      <c r="A6" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2781</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-11.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>30.4</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1280</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3900</v>
-      </c>
-      <c r="J6" s="1">
-        <v>24.7</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="N6" s="1">
-        <v>26</v>
-      </c>
-      <c r="O6" s="1">
-        <v>72</v>
-      </c>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:18">
-      <c r="A7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2781</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-20.1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1358</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3597</v>
-      </c>
-      <c r="J7" s="1">
-        <v>27.4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="N7" s="1">
-        <v>29</v>
-      </c>
-      <c r="O7" s="1">
-        <v>78</v>
-      </c>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:18">
-      <c r="A8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2772</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-44.8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>27.3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1109</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4145</v>
-      </c>
-      <c r="J8" s="1">
-        <v>22</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="N8" s="1">
-        <v>29</v>
-      </c>
-      <c r="O8" s="1">
-        <v>93</v>
-      </c>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2770</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-63.5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>27.3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1104</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4163</v>
-      </c>
-      <c r="J9" s="1">
-        <v>21.8</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="N9" s="1">
-        <v>31</v>
-      </c>
-      <c r="O9" s="1">
-        <v>99</v>
-      </c>
-      <c r="R9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>